--- a/metaData/nigeria-2013_vignettes_codebook.xlsx
+++ b/metaData/nigeria-2013_vignettes_codebook.xlsx
@@ -5,10 +5,10 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\annak\Box Sync\WB Work\WB Github Repo\metadata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\annak\Documents\GitHub\SDI-Health\metaData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9E2902FB-A529-4D65-A871-2B8615F222C3}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E0F880BB-5F6D-44FE-A35B-4CDE9755EFCC}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="-21143" windowWidth="7485" windowHeight="21143" tabRatio="579" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3756,9 +3756,6 @@
     <t>skip_eclampsia</t>
   </si>
   <si>
-    <t>Did not do eclampsia vignette</t>
-  </si>
-  <si>
     <t>In Nigeria survey, item is "refer to hospital immediately"</t>
   </si>
   <si>
@@ -3874,6 +3871,9 @@
   </si>
   <si>
     <t>Did not do diarrhea+dehydration vignette</t>
+  </si>
+  <si>
+    <t>Did not do pre-eclampsia vignette</t>
   </si>
 </sst>
 </file>
@@ -4455,8 +4455,8 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="53" zoomScaleNormal="53" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="17.25" x14ac:dyDescent="0.45"/>
@@ -4514,7 +4514,7 @@
         <v>1212</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="D4" s="24"/>
     </row>
@@ -4526,7 +4526,7 @@
         <v>1213</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="D5" s="24"/>
     </row>
@@ -4538,7 +4538,7 @@
         <v>1215</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="D6" s="24"/>
     </row>
@@ -4614,10 +4614,10 @@
     </row>
     <row r="14" spans="1:4" ht="34.5" x14ac:dyDescent="0.45">
       <c r="A14" s="19" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B14" s="23" t="s">
         <v>1268</v>
-      </c>
-      <c r="B14" s="23" t="s">
-        <v>1269</v>
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="24"/>
@@ -4637,7 +4637,7 @@
         <v>1224</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="C16" s="19" t="s">
         <v>758</v>
@@ -4665,7 +4665,7 @@
         <v>1226</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="C18" s="19" t="s">
         <v>760</v>
@@ -4679,7 +4679,7 @@
         <v>1227</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="C19" s="19" t="s">
         <v>761</v>
@@ -4693,7 +4693,7 @@
         <v>1228</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="C20" s="19" t="s">
         <v>762</v>
@@ -4707,7 +4707,7 @@
         <v>1229</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="C21" s="19" t="s">
         <v>763</v>
@@ -4721,10 +4721,10 @@
         <v>1230</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="D22" s="24" t="s">
         <v>772</v>
@@ -4753,7 +4753,7 @@
         <v>1235</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>1236</v>
+        <v>1275</v>
       </c>
       <c r="D25" s="24"/>
     </row>
@@ -4770,24 +4770,24 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" s="19" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" s="19" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="B28" s="22" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C28" s="19" t="s">
         <v>1258</v>
-      </c>
-      <c r="C28" s="19" t="s">
-        <v>1259</v>
       </c>
     </row>
   </sheetData>
@@ -5892,7 +5892,7 @@
         <v>775</v>
       </c>
       <c r="E85" s="22" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.45">
@@ -6205,7 +6205,7 @@
         <v>775</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="2" customFormat="1" ht="34.5" x14ac:dyDescent="0.4">
@@ -6222,7 +6222,7 @@
         <v>775</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.4">
@@ -8166,10 +8166,10 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A72" s="16" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B72" s="17" t="s">
         <v>1266</v>
-      </c>
-      <c r="B72" s="17" t="s">
-        <v>1267</v>
       </c>
       <c r="C72" s="9"/>
     </row>
@@ -9008,7 +9008,7 @@
         <v>775</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="34.5" x14ac:dyDescent="0.4">
@@ -9025,7 +9025,7 @@
         <v>775</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="34.5" x14ac:dyDescent="0.4">
@@ -9042,7 +9042,7 @@
         <v>775</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="34.5" x14ac:dyDescent="0.4">
@@ -9059,7 +9059,7 @@
         <v>775</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
@@ -9160,7 +9160,7 @@
         <v>775</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
@@ -9522,13 +9522,13 @@
         <v>1076</v>
       </c>
       <c r="C45" s="32" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="D45" s="12" t="s">
         <v>775</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.4">
@@ -9844,7 +9844,7 @@
         <v>775</v>
       </c>
       <c r="E72" s="11" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.4">
@@ -10084,7 +10084,7 @@
         <v>775</v>
       </c>
       <c r="E5" s="36" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
@@ -10101,7 +10101,7 @@
         <v>775</v>
       </c>
       <c r="E6" s="36" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
@@ -10808,7 +10808,7 @@
         <v>775</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.45">
@@ -10865,7 +10865,7 @@
         <v>775</v>
       </c>
       <c r="E69" s="11" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.45">
@@ -12412,7 +12412,7 @@
         <v>775</v>
       </c>
       <c r="E18" s="26" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="34.5" x14ac:dyDescent="0.4">
@@ -12429,7 +12429,7 @@
         <v>775</v>
       </c>
       <c r="E19" s="26" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.4">
@@ -13046,13 +13046,13 @@
         <v>416</v>
       </c>
       <c r="C73" s="32" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="D73" s="12" t="s">
         <v>775</v>
       </c>
       <c r="E73" s="22" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="34.5" x14ac:dyDescent="0.45">
@@ -13063,13 +13063,13 @@
         <v>417</v>
       </c>
       <c r="C74" s="32" t="s">
+        <v>1246</v>
+      </c>
+      <c r="D74" s="12" t="s">
+        <v>775</v>
+      </c>
+      <c r="E74" s="22" t="s">
         <v>1247</v>
-      </c>
-      <c r="D74" s="12" t="s">
-        <v>775</v>
-      </c>
-      <c r="E74" s="22" t="s">
-        <v>1248</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.45">
@@ -14521,7 +14521,7 @@
         <v>473</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="D44" s="12" t="s">
         <v>775</v>
@@ -16229,7 +16229,7 @@
         <v>775</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>776</v>
@@ -16237,24 +16237,24 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="8" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="B7" s="8">
         <v>0</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="8" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="B8" s="8">
         <v>1</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
   </sheetData>
